--- a/knowledge-base/excel-postings/initiatives/FY 22/s1.w9/w9-workstream.initiatives.a6i.xlsx
+++ b/knowledge-base/excel-postings/initiatives/FY 22/s1.w9/w9-workstream.initiatives.a6i.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahernand\Finastra\EA LT - Documents\Amplify S1\Milestones\s1.w9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\test_db\knowledge-base\excel-postings\initiatives\FY 22\s1.w9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DC7A27-2342-4301-AFF9-96BC8F76533D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD72275-B15D-466F-92C8-D0E8B2C5B81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1C3C717C-D18E-4132-9B42-D7001AA1AE8F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{1C3C717C-D18E-4132-9B42-D7001AA1AE8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Posting Label" sheetId="3" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>scenario</t>
   </si>
   <si>
-    <t>environment</t>
-  </si>
-  <si>
     <t>Production</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t>ELT</t>
+  </si>
+  <si>
+    <t>knowledgeBase</t>
   </si>
 </sst>
 </file>
@@ -713,107 +713,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB93A3FE-D3C5-4ABE-BF88-72BB2BC9F4A5}">
   <dimension ref="B1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="15.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.1328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9" t="s">
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C11" s="10">
         <v>44341</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" s="12"/>
       <c r="C13" s="10"/>
     </row>
@@ -826,29 +826,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE62272-EDE1-49CE-9DD5-2DAC624B869E}">
   <dimension ref="B1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="50.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="50.77734375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="25.77734375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="5.77734375" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="10.796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="50.796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="50.796875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25.796875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="19.19921875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5.796875" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="8.86328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -857,34 +857,34 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="14"/>
@@ -894,73 +894,73 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" s="8"/>
       <c r="C4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="E4" s="17">
         <v>44469</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="8"/>
       <c r="C5" s="5"/>
       <c r="D5" s="14"/>
       <c r="E5" s="17"/>
       <c r="F5" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="8"/>
       <c r="C6" s="5"/>
       <c r="D6" s="14"/>
       <c r="E6" s="17"/>
       <c r="F6" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="8"/>
       <c r="C7" s="5"/>
       <c r="D7" s="14"/>
       <c r="E7" s="17"/>
       <c r="F7" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="14"/>
       <c r="E8" s="17"/>
       <c r="F8" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="14"/>
@@ -970,11 +970,11 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="17">
         <v>44469</v>
@@ -984,7 +984,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="14"/>
@@ -994,11 +994,11 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="17">
         <v>44347</v>
@@ -1008,7 +1008,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="14"/>
@@ -1018,11 +1018,11 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="17">
         <v>44712</v>
@@ -1032,7 +1032,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="14"/>
@@ -1042,11 +1042,11 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="17">
         <v>45443</v>
@@ -1056,7 +1056,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="14"/>
@@ -1066,13 +1066,13 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="14"/>
@@ -1080,7 +1080,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="14"/>
@@ -1090,7 +1090,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="14"/>
@@ -1100,7 +1100,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="14"/>
@@ -1110,7 +1110,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="14"/>
@@ -1120,7 +1120,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="14"/>
@@ -1130,7 +1130,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="14"/>
@@ -1140,7 +1140,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="14"/>
@@ -1150,7 +1150,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="14"/>
@@ -1160,7 +1160,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="14"/>
@@ -1170,7 +1170,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="14"/>
@@ -1193,25 +1193,25 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="100.77734375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="3" customWidth="1"/>
-    <col min="8" max="10" width="8.77734375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="25.77734375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="10.796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="100.796875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.796875" style="3" customWidth="1"/>
+    <col min="8" max="10" width="8.796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="25.796875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.796875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="5.796875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.86328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B1" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -1223,43 +1223,43 @@
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
     </row>
-    <row r="2" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="M2" s="19"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="14"/>
@@ -1272,19 +1272,19 @@
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="21">
         <v>0</v>
@@ -1293,27 +1293,27 @@
         <v>1</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="G5" s="21">
         <v>0</v>
@@ -1322,15 +1322,15 @@
         <v>1</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="14"/>
@@ -1343,7 +1343,7 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="14"/>
@@ -1356,7 +1356,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="14"/>
@@ -1369,7 +1369,7 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="14"/>
@@ -1382,7 +1382,7 @@
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="14"/>
@@ -1395,7 +1395,7 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="14"/>
@@ -1408,7 +1408,7 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="14"/>
@@ -1421,7 +1421,7 @@
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="14"/>
@@ -1434,7 +1434,7 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="14"/>
@@ -1447,7 +1447,7 @@
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="14"/>
@@ -1460,7 +1460,7 @@
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="14"/>
@@ -1479,17 +1479,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="66517581-92a9-4cb0-981f-3f6c827c3504">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1704,31 +1699,52 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="66517581-92a9-4cb0-981f-3f6c827c3504">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6CD186-1AFD-40DE-A756-562BEC0234AA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F59924-779F-45B5-BAB0-46EB91D29C8C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{911A918A-E620-457D-8A3D-6A9F387B3E90}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{911A918A-E620-457D-8A3D-6A9F387B3E90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1457f3fe-6304-4719-bef8-60c608407d99"/>
+    <ds:schemaRef ds:uri="66517581-92a9-4cb0-981f-3f6c827c3504"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F59924-779F-45B5-BAB0-46EB91D29C8C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6CD186-1AFD-40DE-A756-562BEC0234AA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="66517581-92a9-4cb0-981f-3f6c827c3504"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>